--- a/biology/Zoologie/Ianthasaurus/Ianthasaurus.xlsx
+++ b/biology/Zoologie/Ianthasaurus/Ianthasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ianthasaurus est un genre éteint de petits pélycosaures de la famille des Edaphosauridae du Carbonifère supérieur, découvert dans le Colorado et au Kansas.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est l'un des plus petits pélycosaures connus, avec un crâne de 8 cm et une longueur totale de 75 cm[1]. Ianthasaurus manque beaucoup des spécialisations spectaculaires vues chez Edaphosaurus. Par exemple, la denture marginale de Ianthasaurus est semblable à celle des reptiles insectivores, avec des dents coniques minces qui sont légèrement recourbées aux extrémités, et il y a un léger développement d'une région caniniforme. La dentition palatine et mandibulaire est non spécialisée, et il n'y a pas de piles de dents pour broyer les végétaux. Aussi, contrairement à Edaphosaurus, Ianthasaurus était légèrement construit et était probablement assez agile. Le crâne était semblable à celui d'Haptodus, l'un des plus petits sphénacodontes, bien qu'ils aient été lointainement liés[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est l'un des plus petits pélycosaures connus, avec un crâne de 8 cm et une longueur totale de 75 cm. Ianthasaurus manque beaucoup des spécialisations spectaculaires vues chez Edaphosaurus. Par exemple, la denture marginale de Ianthasaurus est semblable à celle des reptiles insectivores, avec des dents coniques minces qui sont légèrement recourbées aux extrémités, et il y a un léger développement d'une région caniniforme. La dentition palatine et mandibulaire est non spécialisée, et il n'y a pas de piles de dents pour broyer les végétaux. Aussi, contrairement à Edaphosaurus, Ianthasaurus était légèrement construit et était probablement assez agile. Le crâne était semblable à celui d'Haptodus, l'un des plus petits sphénacodontes, bien qu'ils aient été lointainement liés.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ianthasaurus Reisz (d) &amp; Berman (d), 1986[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ianthasaurus Reisz (d) &amp; Berman (d), 1986.
 </t>
         </is>
       </c>
